--- a/Data/bih_postwar_municipality_metadata.xlsx
+++ b/Data/bih_postwar_municipality_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timmyballesteros/R/bih_voting/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763647BA-17F6-C647-BB53-79266EBDFA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB79AE61-4D8F-264F-B7EE-E5451969BB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4060" yWindow="3160" windowWidth="27240" windowHeight="16440" xr2:uid="{0F486FED-49D3-C145-8825-8025B6C40CD4}"/>
   </bookViews>
@@ -452,9 +452,6 @@
     <t>Dubica</t>
   </si>
   <si>
-    <t>East New Sarajevo</t>
-  </si>
-  <si>
     <t>Kupres-FBIH</t>
   </si>
   <si>
@@ -489,6 +486,9 @@
   </si>
   <si>
     <t>Istočni Mostar</t>
+  </si>
+  <si>
+    <t>East New Sarajevo</t>
   </si>
 </sst>
 </file>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59920D55-899A-7E43-BDF0-652A97E7BB88}">
   <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B72" s="2">
         <v>1</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B83" s="2">
         <v>1</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B97" s="2">
         <v>1</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B99" s="2">
         <v>1</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B106" s="2">
         <v>0</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B117" s="2">
         <v>1</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B131" s="2">
         <v>1</v>

--- a/Data/bih_postwar_municipality_metadata.xlsx
+++ b/Data/bih_postwar_municipality_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timmyballesteros/R/bih_voting/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8E6DCE-312B-CE46-A644-6ED288003964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280E087C-8C04-E34A-A69C-D5F63D26958F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="20880" xr2:uid="{0F486FED-49D3-C145-8825-8025B6C40CD4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$143</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59920D55-899A-7E43-BDF0-652A97E7BB88}">
   <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2705,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -3698,6 +3698,11 @@
       <c r="E148" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E143" xr:uid="{59920D55-899A-7E43-BDF0-652A97E7BB88}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A45:E137">
+      <sortCondition ref="A1:A143"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E148">
     <sortCondition ref="A2:A148"/>
   </sortState>
